--- a/Downer/29267/res_F2LSIP ITP 8 - Road Marking.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 8 - Road Marking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB15C0-F927-4A4C-A582-2D8556C75DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF9EADD-1CF4-41C5-9A96-265825478A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8925" yWindow="1200" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1470" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 8 - Road Marking &amp; Deliniation</t>
-  </si>
-  <si>
     <t>8.0 - Road Marking &amp; Deliniation</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Acceptance Criteria - To Comply with TS1 &amp; M12</t>
   </si>
   <si>
-    <t>Acceptance Criteria - To Comply with TS1 &amp; NZTA M14</t>
-  </si>
-  <si>
     <t>8.1.2 -  Audio Tactile Profiled Roadmarking</t>
   </si>
   <si>
@@ -215,6 +209,21 @@
   </si>
   <si>
     <t>Frequency - All Linemarking</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 08 - Road Marking &amp; Deliniation</t>
+  </si>
+  <si>
+    <t>c08fa776-72ae-4149-be66-0fad4c5f77ce</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - To comply with TNZ T/12</t>
+  </si>
+  <si>
+    <t>○ Application Rate of Paint - Dry Film Thickness</t>
+  </si>
+  <si>
+    <t>○ Material Records as per NZTA P12 - Section 16 QA Records</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +573,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,13 +748,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1129,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,12 +1155,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1148,119 +1170,122 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1373,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,15 +1469,15 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
+      <c r="A40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,15 +1517,15 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1541,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1685,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1741,7 @@
         <v>8</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,31 +1749,31 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>58</v>
+      <c r="A75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>43</v>
+      <c r="A76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>59</v>
+      <c r="A77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,15 +1797,15 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>60</v>
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,15 +1813,15 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>61</v>
+      <c r="A83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1861,23 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
